--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_012.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_012.xlsx
@@ -31,304 +31,313 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295006AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level setpoint setdown</t>
-  </si>
-  <si>
-    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EK2.10) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295003AA1.04) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295005AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Turbine bypass valve operation </t>
-  </si>
-  <si>
-    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295019AK2.01) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulics</t>
-  </si>
-  <si>
-    <t>(600000AA1.05) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6): Plant and control room ventilation systems</t>
-  </si>
-  <si>
-    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK2.21) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Low-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
-  </si>
-  <si>
-    <t>(295030EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295017AA1.03) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Plant ventilation systems </t>
-  </si>
-  <si>
-    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
-  </si>
-  <si>
-    <t>(295029EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Emergency depressurization</t>
-  </si>
-  <si>
-    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
-  </si>
-  <si>
-    <t>(205000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(264000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator temperature</t>
-  </si>
-  <si>
-    <t>(212000A4.18) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Transferring RPS power supplies</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000A2.07) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical distribution failure </t>
-  </si>
-  <si>
-    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(209001K4.02) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevents water hammer</t>
-  </si>
-  <si>
-    <t>(259002K3.02) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(510000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(215005K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Detectors</t>
-  </si>
-  <si>
-    <t>(211000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump amps</t>
-  </si>
-  <si>
-    <t>(209002A4.14) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Test return valve</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291006K1.03) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Basic heat transfer in a heat exchanger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(400000A2.07) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(215003K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(217000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Turbine startup </t>
-  </si>
-  <si>
-    <t>(203000K2.02) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(262001K4.09) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
-  </si>
-  <si>
-    <t>(262002K3.10) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment isolation system/nuclear steam supply shutoff</t>
-  </si>
-  <si>
-    <t>(300000K1.28) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Standby gas treatment system</t>
-  </si>
-  <si>
-    <t>(205000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Abnormal reactor water level</t>
-  </si>
-  <si>
-    <t>(264000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(212000A4.04) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypass SCRAM signals</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290003K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room humidity</t>
-  </si>
-  <si>
-    <t>(272000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor building ventilation system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Safety relief valves </t>
-  </si>
-  <si>
-    <t>(259001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) Feedwater control valve position</t>
-  </si>
-  <si>
-    <t>(202001A4.12) Ability to manually operate and/or monitor the (SF1, SF4 RS) RECIRCULATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core flow</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (291006K1.01) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Startup/shutdown of a heat exchanger</t>
-  </si>
-  <si>
-    <t>(201003A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Low HCU accumulator pressure or high-level</t>
-  </si>
-  <si>
-    <t>(215001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.5 / 45.3) Area radiation monitor indications</t>
-  </si>
-  <si>
-    <t>(204000A3.07) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
-  </si>
-  <si>
-    <t>(202002K2.02) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Hydraulic power unit</t>
-  </si>
-  <si>
-    <t>(226001K4.06) Knowledge of (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Pump motor cooling</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+    <t>(295019AK2.05) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
+  </si>
+  <si>
+    <t>(295026EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool spray</t>
+  </si>
+  <si>
+    <t>(600000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm reset panel</t>
+  </si>
+  <si>
+    <t>(295024EK2.17) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment/auxiliary building isolation</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295030EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Steam condensation</t>
+  </si>
+  <si>
+    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
+  </si>
+  <si>
+    <t>(295001AK2.12) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295025EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(700000AK2.01) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Motors</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
+  </si>
+  <si>
+    <t>(295036EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.5 / 41.10 / 45.6) Allowance for continued operation of a system discharging into an area</t>
+  </si>
+  <si>
+    <t>(295010AA1.06) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Leakage detection systems</t>
+  </si>
+  <si>
+    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295011AA2.04) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
+  </si>
+  <si>
+    <t>(215003A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(209002A2.20) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High drywell pressure</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(215005K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor recirculation system (BWR 5, 6)</t>
+  </si>
+  <si>
+    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(264000K4.03) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Generator droop control</t>
+  </si>
+  <si>
+    <t>(510000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Intake/traveling screen high differential pressure/ differential level</t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
+  </si>
+  <si>
+    <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
+  </si>
+  <si>
+    <t>(205000A3.02) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Pump operation</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(217000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291004K1.21) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Net positive suction head (NSPH) requirements for a positive displacement pump</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(400000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(300000K3.04) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(261000K4.03) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal</t>
+  </si>
+  <si>
+    <t>(203000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Keep fill</t>
+  </si>
+  <si>
+    <t>(259002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Moisture carryover/carryunder</t>
+  </si>
+  <si>
+    <t>(215003A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Reactor SCRAM signals</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(209002A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump seal failure</t>
+  </si>
+  <si>
+    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(201001K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.6-7 / 41.10 / 45.1-6 / 45.8 / 45.12-13) SDV instrumentation</t>
+  </si>
+  <si>
+    <t>(216000K5.12) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Effects on level indication due to rapid changes in void fraction</t>
+  </si>
+  <si>
+    <t>(230000A1.13) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Heat exchanger cooling flow</t>
+  </si>
+  <si>
+    <t>(259001A3.11) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) Reactor feedwater pump runbacks</t>
+  </si>
+  <si>
+    <t>(510001A2.02) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(226001A4.02) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215001K2.02) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Ball valves (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(290003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 CRV) CONTROL ROOM VENTILATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(234000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool level</t>
+  </si>
+  <si>
+    <t>(202002K4.11) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Adjustable speed drives/variable frequency drives</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
+  </si>
+  <si>
+    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Ventilation alignment necessary to secure affected area</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(223002A2.11) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Standby liquid initiation</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000A2.04) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate SLCS system flow</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(233000A2.18) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low pool clarity</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290001A2.08) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of secondary containment integrity </t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
   </si>
   <si>
-    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(293006K1.09) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss relationship between pump speed, head, flow, and power without using formulas or calculations</t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295010AA2.05) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell air cooler drain flow</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(201001A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>K1</t>
@@ -337,33 +346,24 @@
     <t>K3</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295003</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295008</t>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295020</t>
   </si>
   <si>
     <t>295011</t>
   </si>
   <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>500000</t>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215004</t>
   </si>
   <si>
     <t>205000</t>
   </si>
   <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
     <t>263000</t>
   </si>
   <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
     <t>261000</t>
   </si>
   <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209001</t>
+    <t>203000</t>
   </si>
   <si>
     <t>259002</t>
   </si>
   <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>300000</t>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
   <si>
     <t>290003</t>
   </si>
   <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>234000</t>
   </si>
   <si>
     <t>202002</t>
   </si>
   <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>292005</t>
+    <t>292004</t>
   </si>
   <si>
     <t>292007</t>
   </si>
   <si>
-    <t>292001</t>
+    <t>292003</t>
   </si>
   <si>
     <t>293006</t>
   </si>
   <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293004</t>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
     <t>233000</t>
   </si>
   <si>
-    <t>268000</t>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>290001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
@@ -1565,7 +1565,7 @@
         <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1616,7 +1616,7 @@
         <v>3.3</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>109</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
         <v>109</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D82" t="s">
         <v>107</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2415,7 +2415,7 @@
         <v>3.6</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
